--- a/assets/disciplinas/LOM3103.xlsx
+++ b/assets/disciplinas/LOM3103.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Adquirir conhecimentos dos principais processos de soldagem, nomenclatura das juntas soldadas, metalurgia física da soldagem, aspectos relativos à segurança e aplicações da soldagem em engenharia.Processos de metalurgia do pó metálico, de seus principais aspectos metalúrgicos, propriedades, aplicações, vantagens e desvantagens técnicas e econômicas. Identificação dos problemas comuns em componentes metálicos fundidos, soldados e sinterizados. Introdução à Manufatura Aditiva: Potencialidade e Técnicas.</t>
+    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,55 +79,43 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>984972 - Hugo Ricardo Zschommler Sandim</t>
+    <t>Programa resumido:</t>
+  </si>
+  <si>
+    <t>Short syllabus:</t>
+  </si>
+  <si>
+    <t>Programa:</t>
+  </si>
+  <si>
+    <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Avaliação:</t>
+  </si>
+  <si>
+    <t>Método:</t>
   </si>
   <si>
     <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
-    <t>Programa resumido:</t>
-  </si>
-  <si>
-    <t>1. TÉCNICAS DE JUNÇÃO DE MATERIAIS; 2. PROCESSOS DE SOLDAGEM; 3. NOMENCLATURA DAS JUNTAS SOLDADAS; 4. METALURGIA FÍSICA DAS REGIÕES SOLDADAS; 5. SEGURANÇA NO PROCESSO DE SOLDAGEM; 6. APLICAÇÕES DE JUNTAS SOLDADAS EM ENGENHARIA; 7.PÓS METALICOS – OBTENÇÃO, CARACTERIZAÇÃO E APLICAÇÃO NA METALURGIA DO PÓ. 8. TÉCNICAS DE MISTURA, 9. PROCESSOS DE FABRICAÇÃO DE PEÇAS VERDES, 10. SINTERIZAÇÃO, 11. UTILIZAÇÃO DO LASER E DE FEIXE DE ELÉTRONS12. PRÁTICA EXPERIMENTAL SUPERVISIONADA.</t>
-  </si>
-  <si>
-    <t>Short syllabus:</t>
-  </si>
-  <si>
-    <t>Programa:</t>
-  </si>
-  <si>
-    <t>1. TÉCNICAS DE JUNÇÃO DE MATERIAIS: Razões técnicas para a junção de materiais, junção por difusão, brasagem, soldagem por explosão, elementos de fixação. 2. PROCESSOS DE SOLDAGEM: Definição de soldagem por fusão, física da soldagem, principais processos de soldagem. 3. NOMENCLATURA DAS JUNTAS SOLDADAS: Desenho e simbologia para soldagem, símbolos básicos, tipos de juntas e soldas, simbologia para soldas em desenho. 4. METALURGIA FÍSICA DAS REGIÕES SOLDADAS: metalurgia da soldagem, estruturas de solidificação, transformações de fase pós-soldagem, transformações de fases em juntas de aço soldadas, ligas de alumínio, ligas de cobre e em metais e ligas especiais. 5. SEGURANÇA NO PROCESSO DE SOLDAGEM: Problemas associados à vaporização de metais, luminosidade, calor e eletricidade. 6. APLICAÇÕES DE JUNTAS SOLDADAS EM ENGENHARIA: Exemplos de estruturas soldadas em engenharia, descontinuidades e defeitos de soldagem, métodos de inspeção em soldas. 7. PRÁTICA EXPERIMENTAL SUPERVISIONADA: Caracterização microestrutural de juntas soldadas (materiais e processos a serem definidos na ocasião da prática experimental), incluindo a redação de relatório técnico de cada grupo. 8. Pós Metálicos - obtenção por processos químicos, termoquímicos, eletrolíticos, atomização e moagem, Caracterização de pós e sua aplicação na metalurgia do pó.9. Técnicas de mistura, aspectos sobre o transporte e armazenamento de pós, 10-Processos de fabricação de peças "verdes" por compactação uniaxial e isostática, 11- Técnicas de sinterização e fenômenos envolvidos, 12 Sinterização/refusão a LASER para prototipagem rápida (impressão 3D). Feixe de elétrons: obtenção e aplicações.</t>
-  </si>
-  <si>
-    <t>Syllabus:</t>
-  </si>
-  <si>
-    <t>Avaliação:</t>
-  </si>
-  <si>
-    <t>Método:</t>
+    <t>Critério:</t>
   </si>
   <si>
     <t>O aluno será avaliado por duas avaliações, sendo que a segunda avaliação terá peso 2.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Nota Final NF = [Avaliação 1 + 2*(Avaliação 2)]/3</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. WAINER, E. et al. Soldagem - Processos e Metalurgia. São Paulo: Edgar Blücher, 1992. 494 p. 2. QUITES, A. M., DUTRA, J. C. Tecnologia da soldagem a arco voltaico. Florianópolis: EDEME, 1979. 248 p. 3. GOURD, L. M. Principles of welding technology. London: Edward Arnold, 1980. 218 p. 4. KOU, S. Welding metallurgy, 2nd ed.: John Wiley &amp; Sons, 2003. 461 p. 5. MESSLER, Jr. R. W. Principles of welding: Processes, physics, chemistry and metallurgy: Wiley VCH Verlag GmbH &amp; Co., 2004. 662 p.6. KALPAKJIAN, S.; SCHMID, S. Manufacturing processes for engineering materials. 5ª ed., Pearson Education, New Jersey, 2007.7. GERMAN, R.M. Sintering theory and practice. New York, Wiley-Interscience, 19968. GIBSON, I., ROSEN, D., STUCKER, B., Additive Manufacturing Technologies, New York, Springer Verlag, 2015.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -490,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,56 +603,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" customHeight="1">
-      <c r="A16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="120" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:3" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -679,7 +673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
+    <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -690,39 +684,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" customHeight="1">
+    <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="120" customHeight="1">
-      <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3103.xlsx
+++ b/assets/disciplinas/LOM3103.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,24 +70,36 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Adquirir conhecimentos dos principais processos de soldagem, nomenclatura das juntas soldadas, metalurgia física da soldagem, aspectos relativos à segurança e aplicações da soldagem em engenharia.Processos de metalurgia do pó metálico, de seus principais aspectos metalúrgicos, propriedades, aplicações, vantagens e desvantagens técnicas e econômicas. Identificação dos problemas comuns em componentes metálicos fundidos, soldados e sinterizados. Introdução à Manufatura Aditiva: Potencialidade e Técnicas.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>984972 - Hugo Ricardo Zschommler Sandim</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
+    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
   </si>
   <si>
     <t>Programa resumido:</t>
   </si>
   <si>
+    <t>1. TÉCNICAS DE JUNÇÃO DE MATERIAIS; 2. PROCESSOS DE SOLDAGEM; 3. NOMENCLATURA DAS JUNTAS SOLDADAS; 4. METALURGIA FÍSICA DAS REGIÕES SOLDADAS; 5. SEGURANÇA NO PROCESSO DE SOLDAGEM; 6. APLICAÇÕES DE JUNTAS SOLDADAS EM ENGENHARIA; 7.PÓS METALICOS – OBTENÇÃO, CARACTERIZAÇÃO E APLICAÇÃO NA METALURGIA DO PÓ. 8. TÉCNICAS DE MISTURA, 9. PROCESSOS DE FABRICAÇÃO DE PEÇAS VERDES, 10. SINTERIZAÇÃO, 11. UTILIZAÇÃO DO LASER E DE FEIXE DE ELÉTRONS12. PRÁTICA EXPERIMENTAL SUPERVISIONADA.</t>
+  </si>
+  <si>
     <t>Short syllabus:</t>
   </si>
   <si>
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. TÉCNICAS DE JUNÇÃO DE MATERIAIS: Razões técnicas para a junção de materiais, junção por difusão, brasagem, soldagem por explosão, elementos de fixação. 2. PROCESSOS DE SOLDAGEM: Definição de soldagem por fusão, física da soldagem, principais processos de soldagem. 3. NOMENCLATURA DAS JUNTAS SOLDADAS: Desenho e simbologia para soldagem, símbolos básicos, tipos de juntas e soldas, simbologia para soldas em desenho. 4. METALURGIA FÍSICA DAS REGIÕES SOLDADAS: metalurgia da soldagem, estruturas de solidificação, transformações de fase pós-soldagem, transformações de fases em juntas de aço soldadas, ligas de alumínio, ligas de cobre e em metais e ligas especiais. 5. SEGURANÇA NO PROCESSO DE SOLDAGEM: Problemas associados à vaporização de metais, luminosidade, calor e eletricidade. 6. APLICAÇÕES DE JUNTAS SOLDADAS EM ENGENHARIA: Exemplos de estruturas soldadas em engenharia, descontinuidades e defeitos de soldagem, métodos de inspeção em soldas. 7. PRÁTICA EXPERIMENTAL SUPERVISIONADA: Caracterização microestrutural de juntas soldadas (materiais e processos a serem definidos na ocasião da prática experimental), incluindo a redação de relatório técnico de cada grupo. 8. Pós Metálicos - obtenção por processos químicos, termoquímicos, eletrolíticos, atomização e moagem, Caracterização de pós e sua aplicação na metalurgia do pó.9. Técnicas de mistura, aspectos sobre o transporte e armazenamento de pós, 10-Processos de fabricação de peças "verdes" por compactação uniaxial e isostática, 11- Técnicas de sinterização e fenômenos envolvidos, 12 Sinterização/refusão a LASER para prototipagem rápida (impressão 3D). Feixe de elétrons: obtenção e aplicações.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,25 +109,25 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>7459752 - Maria Ismenia Sodero Toledo Faria</t>
+    <t>O aluno será avaliado por duas avaliações, sendo que a segunda avaliação terá peso 2.</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O aluno será avaliado por duas avaliações, sendo que a segunda avaliação terá peso 2.</t>
+    <t>Nota Final NF = [Avaliação 1 + 2*(Avaliação 2)]/3</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Nota Final NF = [Avaliação 1 + 2*(Avaliação 2)]/3</t>
+    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Para a recuperação será realizada uma prova (PR) abrangendo toda a matéria lecionada no semestre, valendo de 0 (zero) a 10 (dez). Média final = (NF + PR)/2.</t>
+    <t>1. WAINER, E. et al. Soldagem - Processos e Metalurgia. São Paulo: Edgar Blücher, 1992. 494 p. 2. QUITES, A. M., DUTRA, J. C. Tecnologia da soldagem a arco voltaico. Florianópolis: EDEME, 1979. 248 p. 3. GOURD, L. M. Principles of welding technology. London: Edward Arnold, 1980. 218 p. 4. KOU, S. Welding metallurgy, 2nd ed.: John Wiley &amp; Sons, 2003. 461 p. 5. MESSLER, Jr. R. W. Principles of welding: Processes, physics, chemistry and metallurgy: Wiley VCH Verlag GmbH &amp; Co., 2004. 662 p.6. KALPAKJIAN, S.; SCHMID, S. Manufacturing processes for engineering materials. 5ª ed., Pearson Education, New Jersey, 2007.7. GERMAN, R.M. Sintering theory and practice. New York, Wiley-Interscience, 19968. GIBSON, I., ROSEN, D., STUCKER, B., Additive Manufacturing Technologies, New York, Springer Verlag, 2015.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +490,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,62 +615,56 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="60" customHeight="1">
-      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="120" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="120" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="60" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -673,7 +679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -684,17 +690,39 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="120" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="B25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
